--- a/data/trans_orig/P15E_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Clase-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2471</v>
+        <v>2553</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1954559495953459</v>
+        <v>0.195455949595346</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7863739797057955</v>
+        <v>0.8126857132952715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>2687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>993</v>
+        <v>1084</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4781</v>
+        <v>4844</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3783479933414778</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1397693740270952</v>
+        <v>0.1525977946173304</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6731852920732443</v>
+        <v>0.682097120075461</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>3301</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1157</v>
+        <v>1454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5806</v>
+        <v>6035</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3222433541077923</v>
+        <v>0.3222433541077924</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1129464114378854</v>
+        <v>0.1419449275238749</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5667423545953946</v>
+        <v>0.5891577853784704</v>
       </c>
     </row>
     <row r="5">
@@ -859,16 +859,16 @@
         <v>2528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>671</v>
+        <v>589</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>3142</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.8045440504046542</v>
+        <v>0.804544050404654</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2136260202942045</v>
+        <v>0.1873142867047285</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -880,19 +880,19 @@
         <v>4415</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2321</v>
+        <v>2258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6109</v>
+        <v>6018</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6216520066585219</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3268147079267559</v>
+        <v>0.3179028799245385</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8602306259729048</v>
+        <v>0.8474022053826696</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -901,19 +901,19 @@
         <v>6943</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4438</v>
+        <v>4209</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9087</v>
+        <v>8790</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.6777566458922076</v>
+        <v>0.6777566458922077</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4332576454046054</v>
+        <v>0.4108422146215296</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8870535885621147</v>
+        <v>0.8580550724761252</v>
       </c>
     </row>
     <row r="7">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2984246570444304</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7120178056753541</v>
+        <v>0.7116696003800326</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1026,19 +1026,19 @@
         <v>2134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3435</v>
+        <v>3415</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5370059107258121</v>
+        <v>0.5370059107258119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1496683604340675</v>
+        <v>0.1445671955659728</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8645184382099446</v>
+        <v>0.8595284031957382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1047,19 +1047,19 @@
         <v>3860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1768</v>
+        <v>1454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6739</v>
+        <v>6435</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3955408898785058</v>
+        <v>0.3955408898785059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1811755290840112</v>
+        <v>0.1489897385604075</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6905040566903616</v>
+        <v>0.6593950113283316</v>
       </c>
     </row>
     <row r="9">
@@ -1123,7 +1123,7 @@
         <v>4060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5787</v>
@@ -1132,7 +1132,7 @@
         <v>0.7015753429555694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2851057503108137</v>
+        <v>0.2881281794000189</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1144,19 +1144,19 @@
         <v>1839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3384</v>
+        <v>3397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4629940892741881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1366999260398065</v>
+        <v>0.1402532265910164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8517016794794828</v>
+        <v>0.8551041985880231</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1165,19 +1165,19 @@
         <v>5899</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3020</v>
+        <v>3324</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7991</v>
+        <v>8305</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6044591101214941</v>
+        <v>0.6044591101214942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.309495943309638</v>
+        <v>0.3406049886716686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8188244709159889</v>
+        <v>0.8510102614395925</v>
       </c>
     </row>
     <row r="11">
@@ -1269,19 +1269,19 @@
         <v>2645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4055</v>
+        <v>3999</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6021116191092281</v>
+        <v>0.6021116191092282</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1667569506335398</v>
+        <v>0.1613165547244451</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9231155267435062</v>
+        <v>0.9103002961990155</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1290,19 +1290,19 @@
         <v>2868</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>987</v>
+        <v>1230</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4893</v>
+        <v>4900</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4352875343222358</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1498059541461733</v>
+        <v>0.1866415372198758</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7425811946645388</v>
+        <v>0.7437239927889856</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1311,19 +1311,19 @@
         <v>5513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3044</v>
+        <v>2895</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7997</v>
+        <v>8017</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.502023392022924</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2771525952623063</v>
+        <v>0.2636573065507563</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.728206289545279</v>
+        <v>0.7300545284601877</v>
       </c>
     </row>
     <row r="13">
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3172</v>
+        <v>3199</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.159894362138009</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4814566191255634</v>
+        <v>0.4855568381631385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1377,16 +1377,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3117</v>
+        <v>3270</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09593065202739019</v>
+        <v>0.09593065202739021</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2838487531085738</v>
+        <v>0.2977466314956116</v>
       </c>
     </row>
     <row r="14">
@@ -1403,19 +1403,19 @@
         <v>1748</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3644</v>
+        <v>3684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3978883808907717</v>
+        <v>0.3978883808907718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07666524365051064</v>
+        <v>0.08969970380098451</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8295723904878006</v>
+        <v>0.8386834452755552</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1424,19 +1424,19 @@
         <v>2667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>722</v>
+        <v>954</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4765</v>
+        <v>4590</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4048181035397552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1095554374063282</v>
+        <v>0.1447431145147285</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7232121906937723</v>
+        <v>0.696596024468074</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1445,19 +1445,19 @@
         <v>4415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2146</v>
+        <v>2120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7121</v>
+        <v>6932</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4020459559496857</v>
+        <v>0.4020459559496859</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1954033494846925</v>
+        <v>0.1930070597650306</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6483884967166457</v>
+        <v>0.631216488651975</v>
       </c>
     </row>
     <row r="15">
@@ -1549,19 +1549,19 @@
         <v>6105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3125</v>
+        <v>3181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9497</v>
+        <v>9809</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3693894136100893</v>
+        <v>0.3693894136100892</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1890533315600307</v>
+        <v>0.1924780785100179</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5745968704655069</v>
+        <v>0.5934907887273194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1570,19 +1570,19 @@
         <v>2857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1111</v>
+        <v>1061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5328</v>
+        <v>5253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.235726914209412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09164721261113021</v>
+        <v>0.0875875676952753</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4397031716437915</v>
+        <v>0.4335100322180399</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1591,19 +1591,19 @@
         <v>8962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5543</v>
+        <v>5163</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14070</v>
+        <v>13020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3128475581656028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1935007004413289</v>
+        <v>0.1802273938355999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4911737389953488</v>
+        <v>0.4545083686915751</v>
       </c>
     </row>
     <row r="17">
@@ -1620,19 +1620,19 @@
         <v>1460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4202</v>
+        <v>4247</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08830795951679692</v>
+        <v>0.0883079595167969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02069319220189971</v>
+        <v>0.02080822850837365</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2542313410348851</v>
+        <v>0.2569403897188921</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3518</v>
+        <v>3403</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09014540153007441</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2903142163292722</v>
+        <v>0.2808622199209106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1662,19 +1662,19 @@
         <v>2552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5451</v>
+        <v>5835</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0890852334804606</v>
+        <v>0.08908523348046062</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02582583271640051</v>
+        <v>0.02927064199335643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1902761206518622</v>
+        <v>0.2036779215882934</v>
       </c>
     </row>
     <row r="18">
@@ -1691,19 +1691,19 @@
         <v>8963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5559</v>
+        <v>5510</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12460</v>
+        <v>12181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5423026268731138</v>
+        <v>0.5423026268731137</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3363674117966782</v>
+        <v>0.3333513711247024</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7539011749965394</v>
+        <v>0.736991458681172</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1712,19 +1712,19 @@
         <v>8169</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5668</v>
+        <v>5824</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10309</v>
+        <v>10273</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6741276842605136</v>
+        <v>0.6741276842605137</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4677246779483943</v>
+        <v>0.4806227829446892</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.850685581416018</v>
+        <v>0.847770950146879</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -1733,19 +1733,19 @@
         <v>17132</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12157</v>
+        <v>12586</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20911</v>
+        <v>21096</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5980672083539367</v>
+        <v>0.5980672083539366</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4243878461746305</v>
+        <v>0.4393567615786638</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7299875575360302</v>
+        <v>0.736426159662617</v>
       </c>
     </row>
     <row r="19">
@@ -1837,19 +1837,19 @@
         <v>1960</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3914</v>
+        <v>3854</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2883725539725183</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07604739978028564</v>
+        <v>0.07347238155360888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5758115399120943</v>
+        <v>0.566980641895047</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1858,19 +1858,19 @@
         <v>4722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2573</v>
+        <v>2480</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7843</v>
+        <v>7553</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1828660865581111</v>
+        <v>0.182866086558111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09965398944930372</v>
+        <v>0.09605860034298264</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3037254522494877</v>
+        <v>0.2924883288560191</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1879,7 +1879,7 @@
         <v>6682</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3744</v>
+        <v>4025</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>10584</v>
@@ -1888,10 +1888,10 @@
         <v>0.2048526293693455</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1147926127767402</v>
+        <v>0.1234057615098202</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3244874558803208</v>
+        <v>0.3244813040452573</v>
       </c>
     </row>
     <row r="21">
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2604</v>
+        <v>3137</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09567714926178408</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3830482921183756</v>
+        <v>0.4615233828438931</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1929,19 +1929,19 @@
         <v>4963</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2286</v>
+        <v>2685</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8203</v>
+        <v>8694</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1921839174986</v>
+        <v>0.1921839174986001</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08853249399360535</v>
+        <v>0.1039981433517101</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3176819735733118</v>
+        <v>0.3366960011172691</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -1950,19 +1950,19 @@
         <v>5613</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2796</v>
+        <v>2977</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9352</v>
+        <v>9112</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1720728262696761</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08571349140190135</v>
+        <v>0.09126735472850676</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2866921234323156</v>
+        <v>0.2793445403234632</v>
       </c>
     </row>
     <row r="22">
@@ -1979,19 +1979,19 @@
         <v>4187</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2237</v>
+        <v>2404</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5839</v>
+        <v>5851</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6159502967656977</v>
+        <v>0.6159502967656975</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3291122218174333</v>
+        <v>0.3536914772034268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8588924119522833</v>
+        <v>0.8606448396938211</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2000,19 +2000,19 @@
         <v>16137</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12673</v>
+        <v>12491</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19328</v>
+        <v>19289</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6249499959432888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4907643491392857</v>
+        <v>0.4837435883854271</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.748512060612138</v>
+        <v>0.7470057155337056</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -2021,19 +2021,19 @@
         <v>20324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16095</v>
+        <v>16354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24285</v>
+        <v>24144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6230745443609784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4934175743445847</v>
+        <v>0.5013617532427435</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7445183460533601</v>
+        <v>0.7401913371049129</v>
       </c>
     </row>
     <row r="23">
@@ -2134,19 +2134,19 @@
         <v>8167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4845</v>
+        <v>4952</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11976</v>
+        <v>11986</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2599539103455113</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1542020243744672</v>
+        <v>0.1576371169800202</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.381200195959296</v>
+        <v>0.3815123855944471</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -2155,19 +2155,19 @@
         <v>8167</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4845</v>
+        <v>4952</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11976</v>
+        <v>11986</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2599539103455113</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1542020243744672</v>
+        <v>0.1576371169800202</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.381200195959296</v>
+        <v>0.3815123855944471</v>
       </c>
     </row>
     <row r="25">
@@ -2193,19 +2193,19 @@
         <v>1888</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4748</v>
+        <v>5052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06010071804842584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01635034973933671</v>
+        <v>0.01911894048027311</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.151128634401606</v>
+        <v>0.1608031770811501</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2214,19 +2214,19 @@
         <v>1888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>514</v>
+        <v>601</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4748</v>
+        <v>5052</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06010071804842584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01635034973933671</v>
+        <v>0.01911894048027311</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.151128634401606</v>
+        <v>0.1608031770811501</v>
       </c>
     </row>
     <row r="26">
@@ -2252,19 +2252,19 @@
         <v>21362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17568</v>
+        <v>17086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24905</v>
+        <v>24949</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6799453716060629</v>
+        <v>0.6799453716060627</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.559195945562894</v>
+        <v>0.5438488283711306</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7927105836254906</v>
+        <v>0.7941395197233859</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -2273,19 +2273,19 @@
         <v>21362</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17568</v>
+        <v>17086</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24905</v>
+        <v>24949</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6799453716060629</v>
+        <v>0.6799453716060627</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.559195945562894</v>
+        <v>0.5438488283711306</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7927105836254906</v>
+        <v>0.7941395197233859</v>
       </c>
     </row>
     <row r="27">
@@ -2365,19 +2365,19 @@
         <v>13052</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8350</v>
+        <v>8898</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18796</v>
+        <v>17858</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.3561409619221528</v>
+        <v>0.3561409619221527</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2278526888145538</v>
+        <v>0.2427828029377281</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5128857099395725</v>
+        <v>0.4872876584777746</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>47</v>
@@ -2386,19 +2386,19 @@
         <v>23434</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17217</v>
+        <v>17501</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29636</v>
+        <v>29772</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.269291441758183</v>
+        <v>0.2692914417581831</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1978513767564581</v>
+        <v>0.20111001024443</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3405638316188574</v>
+        <v>0.3421339482258398</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>66</v>
@@ -2407,19 +2407,19 @@
         <v>36486</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>29066</v>
+        <v>28779</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>44791</v>
+        <v>44407</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.295028909064945</v>
+        <v>0.2950289090649451</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2350339599668547</v>
+        <v>0.2327121008007632</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3621878585750601</v>
+        <v>0.3590811775093693</v>
       </c>
     </row>
     <row r="29">
@@ -2436,19 +2436,19 @@
         <v>2110</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5703</v>
+        <v>5178</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0575728013015607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01805091131928064</v>
+        <v>0.01720398163772764</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1556156521183968</v>
+        <v>0.1412924712484578</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>18</v>
@@ -2457,19 +2457,19 @@
         <v>8997</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5568</v>
+        <v>5337</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14006</v>
+        <v>13627</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1033859375604843</v>
+        <v>0.1033859375604842</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06398984484354112</v>
+        <v>0.06132548813551898</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1609534051243589</v>
+        <v>0.1565919939584835</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -2478,19 +2478,19 @@
         <v>11107</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7103</v>
+        <v>6937</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>17035</v>
+        <v>16444</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.08980941929696203</v>
+        <v>0.08980941929696204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05743727048001469</v>
+        <v>0.05609539119696254</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1377440305776306</v>
+        <v>0.1329718597170292</v>
       </c>
     </row>
     <row r="30">
@@ -2507,19 +2507,19 @@
         <v>21486</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15988</v>
+        <v>16320</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26574</v>
+        <v>25998</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5862862367762866</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4362614186377164</v>
+        <v>0.4453279024342912</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7251112972685754</v>
+        <v>0.7094065740222919</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>103</v>
@@ -2528,19 +2528,19 @@
         <v>54590</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47372</v>
+        <v>47664</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>60803</v>
+        <v>61309</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6273226206813326</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5443758552596539</v>
+        <v>0.5477311837192671</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6987278764474742</v>
+        <v>0.7045409296085891</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>138</v>
@@ -2549,19 +2549,19 @@
         <v>76076</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>67840</v>
+        <v>67581</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83693</v>
+        <v>84329</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.6151616716380928</v>
+        <v>0.615161671638093</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5485661245290203</v>
+        <v>0.5464700051127366</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6767544024147075</v>
+        <v>0.6818971183929627</v>
       </c>
     </row>
     <row r="31">
